--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H2">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>139.4154854004617</v>
+        <v>26.91891634927444</v>
       </c>
       <c r="R2">
-        <v>1254.739368604155</v>
+        <v>242.27024714347</v>
       </c>
       <c r="S2">
-        <v>0.008827513432449752</v>
+        <v>0.001954383321643403</v>
       </c>
       <c r="T2">
-        <v>0.008827513432449752</v>
+        <v>0.001954383321643403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H3">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>120.9951991689156</v>
+        <v>35.47076709643911</v>
       </c>
       <c r="R3">
-        <v>1088.95679252024</v>
+        <v>319.236903867952</v>
       </c>
       <c r="S3">
-        <v>0.007661177256296368</v>
+        <v>0.002575269922447926</v>
       </c>
       <c r="T3">
-        <v>0.007661177256296366</v>
+        <v>0.002575269922447925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H4">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>169.1726062899289</v>
+        <v>49.59438190956978</v>
       </c>
       <c r="R4">
-        <v>1522.55345660936</v>
+        <v>446.3494371861281</v>
       </c>
       <c r="S4">
-        <v>0.01071167560861166</v>
+        <v>0.003600681082167297</v>
       </c>
       <c r="T4">
-        <v>0.01071167560861166</v>
+        <v>0.003600681082167297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J5">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>4028.107479819643</v>
+        <v>2653.048356929924</v>
       </c>
       <c r="R5">
-        <v>36252.96731837679</v>
+        <v>23877.43521236931</v>
       </c>
       <c r="S5">
-        <v>0.2550518171157296</v>
+        <v>0.192618209181256</v>
       </c>
       <c r="T5">
-        <v>0.2550518171157296</v>
+        <v>0.192618209181256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J6">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>3495.893339212678</v>
@@ -818,10 +818,10 @@
         <v>31463.0400529141</v>
       </c>
       <c r="S6">
-        <v>0.2213530679297792</v>
+        <v>0.2538109464642574</v>
       </c>
       <c r="T6">
-        <v>0.2213530679297791</v>
+        <v>0.2538109464642574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J7">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>4887.874821219751</v>
@@ -880,10 +880,10 @@
         <v>43990.87339097775</v>
       </c>
       <c r="S7">
-        <v>0.3094905886280219</v>
+        <v>0.3548724214944146</v>
       </c>
       <c r="T7">
-        <v>0.3094905886280219</v>
+        <v>0.3548724214944146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>957.977326811049</v>
+        <v>630.95639468537</v>
       </c>
       <c r="R8">
-        <v>8621.795941299442</v>
+        <v>5678.607552168331</v>
       </c>
       <c r="S8">
-        <v>0.06065723399460213</v>
+        <v>0.04580907486978303</v>
       </c>
       <c r="T8">
-        <v>0.06065723399460213</v>
+        <v>0.04580907486978303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>831.404467902992</v>
@@ -1004,10 +1004,10 @@
         <v>7482.640211126929</v>
       </c>
       <c r="S9">
-        <v>0.05264289032980047</v>
+        <v>0.06036212619135434</v>
       </c>
       <c r="T9">
-        <v>0.05264289032980045</v>
+        <v>0.06036212619135434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>1162.449929272688</v>
@@ -1066,10 +1066,10 @@
         <v>10462.04936345419</v>
       </c>
       <c r="S10">
-        <v>0.07360403570470901</v>
+        <v>0.08439688747267604</v>
       </c>
       <c r="T10">
-        <v>0.073604035704709</v>
+        <v>0.08439688747267604</v>
       </c>
     </row>
   </sheetData>
